--- a/Ground Truth and Results/meerut_big.xlsx
+++ b/Ground Truth and Results/meerut_big.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhinav\Documents\Semester_7\BTP - 1\Ground truth\big\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhinav\Documents\Semester_7\BTP - 1\BTP\Ground Truth and Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD07FBF-DE82-4BAB-8A72-596E8904A368}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1E92A7-6E90-4519-BD99-D3B1CA2D1FD6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="100">
   <si>
     <t>Date</t>
   </si>
@@ -312,9 +312,6 @@
     <t>up elections</t>
   </si>
   <si>
-    <t>Satellite</t>
-  </si>
-  <si>
     <t>"YES" COUNT</t>
   </si>
   <si>
@@ -322,6 +319,9 @@
   </si>
   <si>
     <t>Useful</t>
+  </si>
+  <si>
+    <t>2012-06, 2014-06, 2016-05, 2018-05</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -801,11 +801,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -925,6 +934,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2172,8 +2184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2708,32 +2720,32 @@
     <row r="2" spans="1:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
       <c r="B2" s="16"/>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
       <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
       <c r="B3" s="15"/>
-      <c r="C3" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="43"/>
+      <c r="C3" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="46"/>
+      <c r="E3" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="44"/>
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="49" t="s">
         <v>65</v>
       </c>
       <c r="C4" s="19" t="s">
@@ -2751,8 +2763,8 @@
       <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="49"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="19" t="s">
         <v>28</v>
       </c>
@@ -2768,8 +2780,8 @@
       <c r="G5" s="17"/>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="50"/>
-      <c r="B6" s="49"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="19" t="s">
         <v>29</v>
       </c>
@@ -2785,8 +2797,8 @@
       <c r="G6" s="17"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="50"/>
-      <c r="B7" s="49"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="19" t="s">
         <v>35</v>
       </c>
@@ -2802,8 +2814,8 @@
       <c r="G7" s="17"/>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="50"/>
-      <c r="B8" s="49"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="19" t="s">
         <v>39</v>
       </c>
@@ -2819,8 +2831,8 @@
       <c r="G8" s="17"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="50"/>
-      <c r="B9" s="49"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="19" t="s">
         <v>43</v>
       </c>
@@ -2836,8 +2848,8 @@
       <c r="G9" s="17"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="50"/>
-      <c r="B10" s="49"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="19" t="s">
         <v>45</v>
       </c>
@@ -2853,8 +2865,8 @@
       <c r="G10" s="17"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="50"/>
-      <c r="B11" s="49"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="21" t="s">
         <v>48</v>
       </c>
@@ -2870,8 +2882,8 @@
       <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="50"/>
-      <c r="B12" s="49"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="21" t="s">
         <v>52</v>
       </c>
@@ -2887,8 +2899,8 @@
       <c r="G12" s="17"/>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="50"/>
-      <c r="B13" s="49"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="21" t="s">
         <v>54</v>
       </c>
@@ -2904,8 +2916,8 @@
       <c r="G13" s="17"/>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="50"/>
-      <c r="B14" s="49"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="21" t="s">
         <v>60</v>
       </c>
@@ -2917,8 +2929,8 @@
       <c r="G14" s="17"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="50"/>
-      <c r="B15" s="49"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="21" t="s">
         <v>62</v>
       </c>
@@ -2930,8 +2942,8 @@
       <c r="G15" s="17"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="50"/>
-      <c r="B16" s="49"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
       <c r="E16" s="20"/>
@@ -2939,8 +2951,8 @@
       <c r="G16" s="17"/>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="50"/>
-      <c r="B17" s="49"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
       <c r="E17" s="20"/>
@@ -2948,8 +2960,8 @@
       <c r="G17" s="17"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="50"/>
-      <c r="B18" s="51" t="s">
+      <c r="A18" s="51"/>
+      <c r="B18" s="52" t="s">
         <v>66</v>
       </c>
       <c r="C18" s="20" t="s">
@@ -2967,8 +2979,8 @@
       <c r="G18" s="17"/>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="50"/>
-      <c r="B19" s="52"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="53"/>
       <c r="C19" s="20" t="s">
         <v>20</v>
       </c>
@@ -2984,8 +2996,8 @@
       <c r="G19" s="17"/>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="50"/>
-      <c r="B20" s="52"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="53"/>
       <c r="C20" s="20" t="s">
         <v>33</v>
       </c>
@@ -3001,8 +3013,8 @@
       <c r="G20" s="17"/>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="50"/>
-      <c r="B21" s="52"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="53"/>
       <c r="C21" s="22" t="s">
         <v>37</v>
       </c>
@@ -3014,8 +3026,8 @@
       <c r="G21" s="17"/>
     </row>
     <row r="22" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="50"/>
-      <c r="B22" s="52"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="53"/>
       <c r="C22" s="24" t="s">
         <v>47</v>
       </c>
@@ -3050,16 +3062,19 @@
   <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I35" sqref="I35"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="14.7" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="51.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="256" width="16.33203125" customWidth="1"/>
+    <col min="2" max="7" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" customWidth="1"/>
+    <col min="11" max="254" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
@@ -3082,13 +3097,10 @@
         <v>73</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H1" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3113,12 +3125,10 @@
       <c r="G2" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>66</v>
-      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
@@ -3142,12 +3152,10 @@
       <c r="G3" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="H3" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>66</v>
-      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="35" t="s">
@@ -3171,12 +3179,10 @@
       <c r="G4" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>66</v>
-      </c>
+      <c r="H4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="40" t="s">
@@ -3200,12 +3206,10 @@
       <c r="G5" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="H5" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>65</v>
-      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="35" t="s">
@@ -3227,14 +3231,12 @@
         <v>78</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="I6" s="27" t="s">
-        <v>66</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="40" t="s">
@@ -3258,12 +3260,10 @@
       <c r="G7" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>65</v>
-      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="40" t="s">
@@ -3287,12 +3287,10 @@
       <c r="G8" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" s="27" t="s">
-        <v>65</v>
-      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
@@ -3314,14 +3312,12 @@
         <v>77</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="I9" s="27" t="s">
-        <v>66</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="40" t="s">
@@ -3343,14 +3339,12 @@
         <v>75</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="H10" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="I10" s="27" t="s">
-        <v>65</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="40" t="s">
@@ -3374,12 +3368,10 @@
       <c r="G11" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="I11" s="27" t="s">
-        <v>66</v>
-      </c>
+      <c r="H11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="35" t="s">
@@ -3401,14 +3393,12 @@
         <v>77</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="I12" s="27" t="s">
-        <v>66</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="35" t="s">
@@ -3432,12 +3422,10 @@
       <c r="G13" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="I13" s="27" t="s">
-        <v>65</v>
-      </c>
+      <c r="H13" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="40" t="s">
@@ -3459,14 +3447,12 @@
         <v>78</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="I14" s="27" t="s">
-        <v>66</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="35" t="s">
@@ -3488,14 +3474,12 @@
         <v>75</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="H15" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="I15" s="27" t="s">
-        <v>66</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="40" t="s">
@@ -3519,12 +3503,10 @@
       <c r="G16" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="H16" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="I16" s="27" t="s">
-        <v>65</v>
-      </c>
+      <c r="H16" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="35" t="s">
@@ -3548,12 +3530,10 @@
       <c r="G17" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="H17" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="I17" s="27" t="s">
-        <v>65</v>
-      </c>
+      <c r="H17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="35" t="s">
@@ -3577,12 +3557,10 @@
       <c r="G18" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="H18" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="I18" s="27" t="s">
-        <v>66</v>
-      </c>
+      <c r="H18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="35" t="s">
@@ -3606,12 +3584,10 @@
       <c r="G19" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="H19" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="I19" s="27" t="s">
-        <v>65</v>
-      </c>
+      <c r="H19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="40" t="s">
@@ -3635,12 +3611,10 @@
       <c r="G20" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="H20" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="I20" s="27" t="s">
-        <v>66</v>
-      </c>
+      <c r="H20" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="10"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="40" t="s">
@@ -3664,12 +3638,10 @@
       <c r="G21" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="H21" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="I21" s="27" t="s">
-        <v>65</v>
-      </c>
+      <c r="H21" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" s="7"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="35" t="s">
@@ -3693,12 +3665,10 @@
       <c r="G22" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="H22" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="I22" s="27" t="s">
-        <v>65</v>
-      </c>
+      <c r="H22" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="10"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="35" t="s">
@@ -3722,12 +3692,10 @@
       <c r="G23" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="H23" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="I23" s="27" t="s">
-        <v>65</v>
-      </c>
+      <c r="H23" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" s="7"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="40" t="s">
@@ -3751,12 +3719,10 @@
       <c r="G24" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="H24" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="I24" s="27" t="s">
-        <v>65</v>
-      </c>
+      <c r="H24" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" s="7"/>
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="40" t="s">
@@ -3778,14 +3744,12 @@
         <v>77</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="H25" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="I25" s="27" t="s">
-        <v>66</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="H25" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25" s="7"/>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="35" t="s">
@@ -3809,12 +3773,10 @@
       <c r="G26" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="H26" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="I26" s="27" t="s">
-        <v>65</v>
-      </c>
+      <c r="H26" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="I26" s="10"/>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="35" t="s">
@@ -3838,12 +3800,10 @@
       <c r="G27" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="H27" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="I27" s="27" t="s">
-        <v>65</v>
-      </c>
+      <c r="H27" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="I27" s="7"/>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="40" t="s">
@@ -3867,12 +3827,10 @@
       <c r="G28" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="H28" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="I28" s="27" t="s">
-        <v>65</v>
-      </c>
+      <c r="H28" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="I28" s="10"/>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="35" t="s">
@@ -3896,12 +3854,10 @@
       <c r="G29" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="H29" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="I29" s="27" t="s">
-        <v>65</v>
-      </c>
+      <c r="H29" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="I29" s="7"/>
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="35" t="s">
@@ -3925,12 +3881,10 @@
       <c r="G30" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="H30" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="I30" s="27" t="s">
-        <v>66</v>
-      </c>
+      <c r="H30" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="I30" s="10"/>
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="40" t="s">
@@ -3954,12 +3908,10 @@
       <c r="G31" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="H31" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="I31" s="27" t="s">
-        <v>65</v>
-      </c>
+      <c r="H31" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="I31" s="12"/>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="40" t="s">
@@ -3983,14 +3935,11 @@
       <c r="G32" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="H32" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="I32" s="27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H32" s="42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="35" t="s">
         <v>94</v>
       </c>
@@ -4012,14 +3961,11 @@
       <c r="G33" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="H33" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="I33" s="27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H33" s="42" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="35" t="s">
         <v>95</v>
       </c>
@@ -4041,14 +3987,11 @@
       <c r="G34" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="H34" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="I34" s="27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H34" s="42" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="40" t="s">
         <v>57</v>
       </c>
@@ -4068,16 +4011,13 @@
         <v>78</v>
       </c>
       <c r="G35" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="H35" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="I35" s="27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="H35" s="42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="35" t="s">
         <v>59</v>
       </c>
@@ -4099,14 +4039,11 @@
       <c r="G36" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="H36" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="I36" s="27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H36" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="40" t="s">
         <v>61</v>
       </c>
@@ -4128,14 +4065,11 @@
       <c r="G37" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="H37" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="I37" s="27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H37" s="42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="40" t="s">
         <v>63</v>
       </c>
@@ -4157,23 +4091,20 @@
       <c r="G38" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="H38" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="I38" s="27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H38" s="42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B39" s="29">
         <f>COUNTIF(B2:B38,"YES")</f>
         <v>16</v>
       </c>
       <c r="C39" s="29">
-        <f t="shared" ref="C39:H39" si="0">COUNTIF(C2:C38,"YES")</f>
+        <f t="shared" ref="C39:F39" si="0">COUNTIF(C2:C38,"YES")</f>
         <v>16</v>
       </c>
       <c r="D39" s="29">
@@ -4188,21 +4119,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G39" s="29">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="H39" s="29">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:8" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B40" s="29">
-        <f t="shared" ref="B40:G40" si="1">COUNTIF(B2:B38,"NO")</f>
+        <f t="shared" ref="B40:F40" si="1">COUNTIF(B2:B38,"NO")</f>
         <v>21</v>
       </c>
       <c r="C40" s="29">
@@ -4221,46 +4144,38 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G40" s="29">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="H40" s="29">
-        <f>COUNTIF(H2:H38,"NO")</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:8" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="30"/>
       <c r="B42" s="30"/>
       <c r="C42" s="31"/>
     </row>
-    <row r="43" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="30"/>
       <c r="B43" s="30"/>
       <c r="C43" s="31"/>
     </row>
-    <row r="44" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="32"/>
       <c r="B44" s="30"/>
       <c r="C44" s="31"/>
     </row>
-    <row r="45" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="30"/>
       <c r="B45" s="30"/>
       <c r="C45" s="31"/>
     </row>
-    <row r="46" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="32"/>
       <c r="B46" s="30"/>
       <c r="C46" s="31"/>
     </row>
-    <row r="47" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="30"/>
       <c r="B47" s="30"/>
       <c r="C47" s="31"/>
     </row>
-    <row r="48" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="32"/>
       <c r="B48" s="30"/>
       <c r="C48" s="31"/>
@@ -4381,27 +4296,22 @@
       <c r="C71" s="31"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G2:G38">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="YES">
-      <formula>NOT(ISERROR(SEARCH("YES",G2)))</formula>
+  <conditionalFormatting sqref="A1:F38">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+      <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:H38">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="YES">
-      <formula>NOT(ISERROR(SEARCH("YES",G2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:H38">
+  <conditionalFormatting sqref="H1">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I38">
+  <conditionalFormatting sqref="G2:G38">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="YES">
-      <formula>NOT(ISERROR(SEARCH("YES",I2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("YES",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I38">
+  <conditionalFormatting sqref="G1:G38">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
